--- a/_Shared Resources/TopSky/Airspace/TopSkyAirspace-TATL QNHTL Converter.xlsx
+++ b/_Shared Resources/TopSky/Airspace/TopSkyAirspace-TATL QNHTL Converter.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\0 GitHub\Sector-Files\_Shared Resources\TopSky\Airspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ATC Control\1 Sector-Files\_Shared Resources\TopSky\Airspace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF01EE60-E4C2-4B62-A0EF-5E7B1D381A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8671382D-2C90-43F5-8B2E-334C8B640897}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F8932534-CCFE-4C1D-927F-C90B54DA4E22}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="34">
   <si>
     <t>ICAO</t>
   </si>
@@ -43,25 +43,100 @@
     <t>QNHTL:</t>
   </si>
   <si>
-    <t>DIAP</t>
-  </si>
-  <si>
-    <t>DIBK</t>
-  </si>
-  <si>
-    <t>DIKO</t>
-  </si>
-  <si>
-    <t>DIMN</t>
-  </si>
-  <si>
-    <t>DIOD</t>
-  </si>
-  <si>
-    <t>DISP</t>
-  </si>
-  <si>
-    <t>DIYO</t>
+    <t>FALE</t>
+  </si>
+  <si>
+    <t>FAPH</t>
+  </si>
+  <si>
+    <t>FAPM</t>
+  </si>
+  <si>
+    <t>FAPP</t>
+  </si>
+  <si>
+    <t>FARB</t>
+  </si>
+  <si>
+    <t>FASS</t>
+  </si>
+  <si>
+    <t>FASZ</t>
+  </si>
+  <si>
+    <t>FATW</t>
+  </si>
+  <si>
+    <t>FAUP</t>
+  </si>
+  <si>
+    <t>FAWB</t>
+  </si>
+  <si>
+    <t>FAWI</t>
+  </si>
+  <si>
+    <t>FAWK</t>
+  </si>
+  <si>
+    <t>FDMS</t>
+  </si>
+  <si>
+    <t>FDSK</t>
+  </si>
+  <si>
+    <t>FXMM</t>
+  </si>
+  <si>
+    <t>FYOG</t>
+  </si>
+  <si>
+    <t>FACF</t>
+  </si>
+  <si>
+    <t>FACT</t>
+  </si>
+  <si>
+    <t>FAEL</t>
+  </si>
+  <si>
+    <t>FAFO</t>
+  </si>
+  <si>
+    <t>FAGG</t>
+  </si>
+  <si>
+    <t>FAGR</t>
+  </si>
+  <si>
+    <t>FAOB</t>
+  </si>
+  <si>
+    <t>FAPE</t>
+  </si>
+  <si>
+    <t>FAPG</t>
+  </si>
+  <si>
+    <t>FAUT</t>
+  </si>
+  <si>
+    <t>FYLZ</t>
+  </si>
+  <si>
+    <t>FYOA</t>
+  </si>
+  <si>
+    <t>FYRU</t>
+  </si>
+  <si>
+    <t>FYWB</t>
+  </si>
+  <si>
+    <t>FYWE</t>
+  </si>
+  <si>
+    <t>FYWH</t>
   </si>
 </sst>
 </file>
@@ -420,10 +495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46627918-4F0F-4BF4-A941-EC61452C25EB}">
-  <dimension ref="B4:E11"/>
+  <dimension ref="B4:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B11"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B5:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -438,107 +513,542 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="str">
-        <f t="shared" ref="B5:B6" si="0">D5&amp;C5&amp;":"&amp;(E5+20)&amp;",995,"&amp;(E5+15)&amp;",1013,"&amp;(E5+10)&amp;",1031,"&amp;(E5+5)&amp;",1049,"&amp;E5&amp;",1060,"&amp;E5</f>
-        <v>QNHTL:DIAP:51,995,46,1013,41,1031,36,1049,31,1060,31</v>
+        <f t="shared" ref="B5:B41" si="0">D5&amp;C5&amp;":"&amp;(E5+20)&amp;",995,"&amp;(E5+15)&amp;",1013,"&amp;(E5+10)&amp;",1031,"&amp;(E5+5)&amp;",1049,"&amp;E5&amp;",1060,"&amp;E5</f>
+        <v>QNHTL:FYLZ:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
       </c>
       <c r="E5">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>QNHTL:DIBK:62,995,57,1013,52,1031,47,1049,42,1060,42</v>
+        <v>QNHTL:FYOA:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C6" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
       </c>
       <c r="E6">
-        <v>42</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="str">
-        <f>D7&amp;C7&amp;":"&amp;(E7+20)&amp;",995,"&amp;(E7+15)&amp;",1013,"&amp;(E7+10)&amp;",1031,"&amp;(E7+5)&amp;",1049,"&amp;E7&amp;",1060,"&amp;E7</f>
-        <v>QNHTL:DIKO:65,995,60,1013,55,1031,50,1049,45,1060,45</v>
+        <f t="shared" si="0"/>
+        <v>QNHTL:FYRU:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="str">
-        <f>D8&amp;C8&amp;":"&amp;(E8+20)&amp;",995,"&amp;(E8+15)&amp;",1013,"&amp;(E8+10)&amp;",1031,"&amp;(E8+5)&amp;",1049,"&amp;E8&amp;",1060,"&amp;E8</f>
-        <v>QNHTL:DIMN:90,995,85,1013,80,1031,75,1049,70,1060,70</v>
+        <f t="shared" si="0"/>
+        <v>QNHTL:FYWB:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
       </c>
       <c r="E8">
-        <v>70</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="str">
-        <f>D9&amp;C9&amp;":"&amp;(E9+20)&amp;",995,"&amp;(E9+15)&amp;",1013,"&amp;(E9+10)&amp;",1031,"&amp;(E9+5)&amp;",1049,"&amp;E9&amp;",1060,"&amp;E9</f>
-        <v>QNHTL:DIOD:65,995,60,1013,55,1031,50,1049,45,1060,45</v>
+        <f t="shared" si="0"/>
+        <v>QNHTL:FYWE:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
       </c>
       <c r="E9">
-        <v>45</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="str">
-        <f>D10&amp;C10&amp;":"&amp;(E10+20)&amp;",995,"&amp;(E10+15)&amp;",1013,"&amp;(E10+10)&amp;",1031,"&amp;(E10+5)&amp;",1049,"&amp;E10&amp;",1060,"&amp;E10</f>
-        <v>QNHTL:DISP:51,995,46,1013,41,1031,36,1049,31,1060,31</v>
+        <f t="shared" si="0"/>
+        <v>QNHTL:FYWH:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>31</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="str">
-        <f>D11&amp;C11&amp;":"&amp;(E11+20)&amp;",995,"&amp;(E11+15)&amp;",1013,"&amp;(E11+10)&amp;",1031,"&amp;(E11+5)&amp;",1049,"&amp;E11&amp;",1060,"&amp;E11</f>
-        <v>QNHTL:DIYO:62,995,57,1013,52,1031,47,1049,42,1060,42</v>
+        <f t="shared" si="0"/>
+        <v>QNHTL:FALE:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
       </c>
       <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL::100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL::115,995,110,1013,105,1031,100,1049,95,1060,95</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL::70,995,65,1013,60,1031,55,1049,50,1060,50</v>
+      </c>
+      <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL::95,995,90,1013,85,1031,80,1049,75,1060,75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL::100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAPH:55,995,50,1013,45,1031,40,1049,35,1060,35</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAPM:105,995,100,1013,95,1031,90,1049,85,1060,85</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAPP:110,995,105,1013,100,1031,95,1049,90,1060,90</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FARB:55,995,50,1013,45,1031,40,1049,35,1060,35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FASS:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FASZ:110,995,105,1013,100,1031,95,1049,90,1060,90</v>
+      </c>
+      <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>42</v>
+      <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FATW:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAUP:75,995,70,1013,65,1031,60,1049,55,1060,55</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAWB:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C25" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAWI:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C26" t="s">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAWK:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FDMS:91,995,86,1013,81,1031,76,1049,71,1060,71</v>
+      </c>
+      <c r="C28" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FDSK:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FXMM:140,995,135,1013,130,1031,125,1049,120,1060,120</v>
+      </c>
+      <c r="C30" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FYOG:70,995,65,1013,60,1031,55,1049,50,1060,50</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FACF:105,995,100,1013,95,1031,90,1049,85,1060,85</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FACT:95,995,90,1013,85,1031,80,1049,75,1060,75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAEL:90,995,85,1013,80,1031,75,1049,70,1060,70</v>
+      </c>
+      <c r="C34" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAFO:115,995,110,1013,105,1031,100,1049,95,1060,95</v>
+      </c>
+      <c r="C35" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAGG:100,995,95,1013,90,1031,85,1049,80,1060,80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAGR:110,995,105,1013,100,1031,95,1049,90,1060,90</v>
+      </c>
+      <c r="C37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAOB:70,995,65,1013,60,1031,55,1049,50,1060,50</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAPE:75,995,70,1013,65,1031,60,1049,55,1060,55</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" t="s">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAPG:87,995,82,1013,77,1031,72,1049,67,1060,67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D40" t="s">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>QNHTL:FAUT:120,995,115,1013,110,1031,105,1049,100,1060,100</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
